--- a/13. Macro_Basics.xlsx
+++ b/13. Macro_Basics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\GitHub_Clone_Repo\Rahul_Repo\Me_Mastering_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B4C0A76-87CE-4A93-A1F0-EE45CE91EDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFFD294-3C3A-433C-985E-C9A688D8B5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{915FBEAD-9E8C-44E2-8BFC-42CCFFAED35C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{915FBEAD-9E8C-44E2-8BFC-42CCFFAED35C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,6 +148,73 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>Macro Basics</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{874CC7AF-4805-4711-DDA4-80FDA47E565C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10767060" y="2644140"/>
+          <a:ext cx="2103120" cy="1470660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -475,11 +542,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59F90C9-1DC7-4B70-BEC7-94E5D2AACF23}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/13. Macro_Basics.xlsx
+++ b/13. Macro_Basics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFFD294-3C3A-433C-985E-C9A688D8B5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BA0002-B140-4F6B-AB7B-AC4585E48A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{915FBEAD-9E8C-44E2-8BFC-42CCFFAED35C}"/>
   </bookViews>
@@ -148,73 +148,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>Macro Basics</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{874CC7AF-4805-4711-DDA4-80FDA47E565C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10767060" y="2644140"/>
-          <a:ext cx="2103120" cy="1470660"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -542,9 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59F90C9-1DC7-4B70-BEC7-94E5D2AACF23}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/13. Macro_Basics.xlsx
+++ b/13. Macro_Basics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BA0002-B140-4F6B-AB7B-AC4585E48A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C54D14-6AEE-4891-B5EF-883EFA7C56A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{915FBEAD-9E8C-44E2-8BFC-42CCFFAED35C}"/>
   </bookViews>
@@ -33,6 +33,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,12 +481,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59F90C9-1DC7-4B70-BEC7-94E5D2AACF23}">
-  <dimension ref="A1"/>
+  <dimension ref="Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="9" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
